--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J596"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C597" sqref="C597"/>
@@ -18646,6 +18646,657 @@
     <row r="596">
       <c r="B596" s="5" t="n"/>
     </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>2200.75</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1539.5</v>
+      </c>
+      <c r="E597" t="n">
+        <v>1707.449951171875</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1138.300048828125</v>
+      </c>
+      <c r="H597" t="n">
+        <v>8555.050048828125</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
+      <c r="J597" t="n">
+        <v>195.3432372519036</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>2193.75</v>
+      </c>
+      <c r="D598" t="n">
+        <v>1499.150024414062</v>
+      </c>
+      <c r="E598" t="n">
+        <v>1691.300048828125</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1961.150024414062</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1132.050048828125</v>
+      </c>
+      <c r="H598" t="n">
+        <v>8477.400146484375</v>
+      </c>
+      <c r="I598" t="n">
+        <v>-0.009076498898377167</v>
+      </c>
+      <c r="J598" t="n">
+        <v>193.5702045741812</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>2240.199951171875</v>
+      </c>
+      <c r="D599" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E599" t="n">
+        <v>1731.75</v>
+      </c>
+      <c r="F599" t="n">
+        <v>1953.800048828125</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H599" t="n">
+        <v>8591.200073242188</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0.01342391827581785</v>
+      </c>
+      <c r="J599" t="n">
+        <v>196.1686751810184</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E600" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H600" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I600" t="n">
+        <v>-0.005918844300264037</v>
+      </c>
+      <c r="J600" t="n">
+        <v>195.0075833360329</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E601" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F601" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H601" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I601" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J601" t="n">
+        <v>194.0177412704662</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D602" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E602" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H602" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J602" t="n">
+        <v>195.7508205905787</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D603" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E603" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F603" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H603" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J603" t="n">
+        <v>196.4643673773375</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D604" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E604" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H604" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I604" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J604" t="n">
+        <v>195.170841886467</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D605" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E605" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F605" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H605" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I605" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J605" t="n">
+        <v>194.2803285394565</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D606" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E606" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H606" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J606" t="n">
+        <v>194.572600701606</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D607" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E607" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H607" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I607" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J607" t="n">
+        <v>194.2540664677808</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D608" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E608" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H608" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J608" t="n">
+        <v>196.1812292428765</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D609" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E609" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H609" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J609" t="n">
+        <v>197.1573716605673</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D610" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H610" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I610" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J610" t="n">
+        <v>196.0921801380266</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H611" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I611" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J611" t="n">
+        <v>194.8089231116067</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H612" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I612" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J612" t="n">
+        <v>190.684024638068</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H613" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I613" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J613" t="n">
+        <v>189.010315104274</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H614" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I614" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J614" t="n">
+        <v>187.7247780550743</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H615" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J615" t="n">
+        <v>190.4865127869734</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H616" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I616" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J616" t="n">
+        <v>190.0538157499541</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I617" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J617" t="n">
+        <v>189.512658754004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J638"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C597" sqref="C597"/>
@@ -19297,6 +19297,657 @@
         <v>189.512658754004</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>2200.75</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1539.5</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1707.449951171875</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1138.300048828125</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8555.050048828125</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>189.512658754004</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>2193.75</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1499.150024414062</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1691.300048828125</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1961.150024414062</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1132.050048828125</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8477.400146484375</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.009076498898377167</v>
+      </c>
+      <c r="J619" t="n">
+        <v>187.7925473155948</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>2240.199951171875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1731.75</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1953.800048828125</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8591.200073242188</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.01342391827581785</v>
+      </c>
+      <c r="J620" t="n">
+        <v>190.313459123567</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.005918844300264037</v>
+      </c>
+      <c r="J621" t="n">
+        <v>189.1870233907699</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J622" t="n">
+        <v>188.2267259971612</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J623" t="n">
+        <v>189.9080766003692</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J624" t="n">
+        <v>190.6003255392442</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J625" t="n">
+        <v>189.3454090220943</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J626" t="n">
+        <v>188.4814755968984</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J627" t="n">
+        <v>188.765024059123</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J628" t="n">
+        <v>188.4559973919825</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J629" t="n">
+        <v>190.3256384734865</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J630" t="n">
+        <v>191.2726451244543</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J631" t="n">
+        <v>190.2392472942617</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H632" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J632" t="n">
+        <v>188.9942927498257</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H633" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J633" t="n">
+        <v>184.9925136874536</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H634" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J634" t="n">
+        <v>183.3687608092201</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H635" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J635" t="n">
+        <v>182.1215942958156</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H636" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J636" t="n">
+        <v>184.8008971433493</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H637" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I637" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J637" t="n">
+        <v>184.3811151889079</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H638" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J638" t="n">
+        <v>183.8561105737055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J638"/>
+  <dimension ref="A1:J659"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C597" sqref="C597"/>
@@ -19948,6 +19948,657 @@
         <v>183.8561105737055</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>2200.75</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1539.5</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1707.449951171875</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1138.300048828125</v>
+      </c>
+      <c r="H639" t="n">
+        <v>8555.050048828125</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" t="n">
+        <v>183.8561105737055</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>2193.75</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1499.150024414062</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1691.300048828125</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1961.150024414062</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1132.050048828125</v>
+      </c>
+      <c r="H640" t="n">
+        <v>8477.400146484375</v>
+      </c>
+      <c r="I640" t="n">
+        <v>-0.009076498898377167</v>
+      </c>
+      <c r="J640" t="n">
+        <v>182.1873407886234</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>2240.199951171875</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1731.75</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1953.800048828125</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H641" t="n">
+        <v>8591.200073242188</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.01342391827581785</v>
+      </c>
+      <c r="J641" t="n">
+        <v>184.6330087622584</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H642" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.005918844300264037</v>
+      </c>
+      <c r="J642" t="n">
+        <v>183.5401947307053</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H643" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I643" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J643" t="n">
+        <v>182.608560163686</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H644" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J644" t="n">
+        <v>184.2397260417282</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H645" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J645" t="n">
+        <v>184.9113128279995</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H646" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J646" t="n">
+        <v>183.6938528891499</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H647" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J647" t="n">
+        <v>182.855706031861</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H648" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J648" t="n">
+        <v>183.1307911779747</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H649" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I649" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J649" t="n">
+        <v>182.8309882969558</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H650" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J650" t="n">
+        <v>184.6448245845905</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H651" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J651" t="n">
+        <v>185.5635651092558</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H652" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J652" t="n">
+        <v>184.5610119975867</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H653" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J653" t="n">
+        <v>183.3532166878381</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H654" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I654" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J654" t="n">
+        <v>179.4708821851173</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H655" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I655" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J655" t="n">
+        <v>177.8955948629528</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H656" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I656" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J656" t="n">
+        <v>176.685653606786</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H657" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J657" t="n">
+        <v>179.2849849856784</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H658" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J658" t="n">
+        <v>178.8777326261788</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H659" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I659" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J659" t="n">
+        <v>178.3683982776504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J616"/>
+  <dimension ref="A1:J636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C597" sqref="C597"/>
@@ -19266,6 +19266,626 @@
         <v>188.2731948219999</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>188.2731948219999</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J618" t="n">
+        <v>187.3175359452253</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J619" t="n">
+        <v>188.9907651340372</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J620" t="n">
+        <v>189.6796703083891</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J621" t="n">
+        <v>188.4308154044737</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J622" t="n">
+        <v>187.5710550300046</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J623" t="n">
+        <v>187.8532338703557</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J624" t="n">
+        <v>187.5456998922585</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J625" t="n">
+        <v>189.4063100613722</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J626" t="n">
+        <v>190.348742393674</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J627" t="n">
+        <v>189.3203361767708</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J628" t="n">
+        <v>188.081395126332</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J629" t="n">
+        <v>184.098945825418</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J630" t="n">
+        <v>182.4830361477495</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J631" t="n">
+        <v>181.2418938127983</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H632" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J632" t="n">
+        <v>183.9082548451769</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H633" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J633" t="n">
+        <v>183.4905005601589</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H634" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J634" t="n">
+        <v>182.9680318705581</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>2188.14990234375</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1382.900024414062</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1678.300048828125</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1888.550048828125</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1068</v>
+      </c>
+      <c r="H635" t="n">
+        <v>8205.900024414062</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.01130161909471061</v>
+      </c>
+      <c r="J635" t="n">
+        <v>180.9001968678482</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2218.5</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1413.150024414062</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1685.699951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1837.949951171875</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="H636" t="n">
+        <v>8231.249877929688</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.003089222808004548</v>
+      </c>
+      <c r="J636" t="n">
+        <v>181.4590378819848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J636"/>
+  <dimension ref="A1:J656"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C597" sqref="C597"/>
@@ -19886,6 +19886,626 @@
         <v>181.4590378819848</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H637" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+      <c r="J637" t="n">
+        <v>181.4590378819848</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H638" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J638" t="n">
+        <v>180.5379670918129</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H639" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J639" t="n">
+        <v>182.1506372281268</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H640" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J640" t="n">
+        <v>182.8146089116583</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H641" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I641" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J641" t="n">
+        <v>181.6109537151077</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H642" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J642" t="n">
+        <v>180.782310580286</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H643" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J643" t="n">
+        <v>181.0542765440503</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H644" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I644" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J644" t="n">
+        <v>180.757873119047</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H645" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J645" t="n">
+        <v>182.5511423705728</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H646" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J646" t="n">
+        <v>183.4594653235563</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H647" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J647" t="n">
+        <v>182.4682801320183</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H648" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I648" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J648" t="n">
+        <v>181.2741799776248</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H649" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I649" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J649" t="n">
+        <v>177.435867151198</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H650" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J650" t="n">
+        <v>175.8784419654665</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H651" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I651" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J651" t="n">
+        <v>174.6822201974778</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H652" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J652" t="n">
+        <v>177.2520778346145</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H653" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J653" t="n">
+        <v>176.8494432975945</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H654" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I654" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J654" t="n">
+        <v>176.3458842762051</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>2188.14990234375</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1382.900024414062</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1678.300048828125</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1888.550048828125</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1068</v>
+      </c>
+      <c r="H655" t="n">
+        <v>8205.900024414062</v>
+      </c>
+      <c r="I655" t="n">
+        <v>-0.01130161909471061</v>
+      </c>
+      <c r="J655" t="n">
+        <v>174.3528902631955</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>2218.5</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1413.150024414062</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1685.699951171875</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1837.949951171875</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="H656" t="n">
+        <v>8231.249877929688</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.003089222808004548</v>
+      </c>
+      <c r="J656" t="n">
+        <v>174.8915051884381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J656"/>
+  <dimension ref="A1:J676"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C597" sqref="C597"/>
@@ -20506,6 +20506,626 @@
         <v>174.8915051884381</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H657" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" t="n">
+        <v>174.8915051884381</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H658" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J658" t="n">
+        <v>174.0037706409694</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H659" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J659" t="n">
+        <v>175.5580735338119</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H660" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J660" t="n">
+        <v>176.1980141423962</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H661" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I661" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J661" t="n">
+        <v>175.0379227437549</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H662" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I662" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J662" t="n">
+        <v>174.239270624772</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H663" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J663" t="n">
+        <v>174.5013933457891</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H664" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I664" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J664" t="n">
+        <v>174.2157176266467</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H665" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J665" t="n">
+        <v>175.9440832251211</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H666" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J666" t="n">
+        <v>176.8195313168707</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H667" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J667" t="n">
+        <v>175.8642200130528</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H668" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I668" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J668" t="n">
+        <v>174.713337831679</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H669" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I669" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J669" t="n">
+        <v>171.0139447596488</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H670" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I670" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J670" t="n">
+        <v>169.5128873412351</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H671" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I671" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J671" t="n">
+        <v>168.3599603336601</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H672" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J672" t="n">
+        <v>170.8368073153527</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H673" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I673" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J673" t="n">
+        <v>170.4487452984799</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H674" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I674" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J674" t="n">
+        <v>169.9634115491668</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2188.14990234375</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1382.900024414062</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1678.300048828125</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1888.550048828125</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1068</v>
+      </c>
+      <c r="H675" t="n">
+        <v>8205.900024414062</v>
+      </c>
+      <c r="I675" t="n">
+        <v>-0.01130161909471061</v>
+      </c>
+      <c r="J675" t="n">
+        <v>168.0425498118006</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2218.5</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1413.150024414062</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1685.699951171875</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1837.949951171875</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="H676" t="n">
+        <v>8231.249877929688</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.003089222808004548</v>
+      </c>
+      <c r="J676" t="n">
+        <v>168.5616706893945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J676"/>
+  <dimension ref="A1:J696"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C597" sqref="C597"/>
@@ -21126,6 +21126,626 @@
         <v>168.5616706893945</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G677" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H677" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0</v>
+      </c>
+      <c r="J677" t="n">
+        <v>168.5616706893945</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H678" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I678" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J678" t="n">
+        <v>167.7060658486174</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G679" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H679" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I679" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J679" t="n">
+        <v>169.2041139790432</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H680" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J680" t="n">
+        <v>169.8208932674868</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G681" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H681" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I681" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J681" t="n">
+        <v>168.7027889656416</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H682" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I682" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J682" t="n">
+        <v>167.933042400019</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H683" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J683" t="n">
+        <v>168.1856781339998</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H684" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I684" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J684" t="n">
+        <v>167.9103418537033</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H685" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J685" t="n">
+        <v>169.5761528519391</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H686" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I686" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J686" t="n">
+        <v>170.4199159197231</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H687" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I687" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J687" t="n">
+        <v>169.4991801228272</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H688" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I688" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J688" t="n">
+        <v>168.3899517297728</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H689" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I689" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J689" t="n">
+        <v>164.8244505003888</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H690" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I690" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J690" t="n">
+        <v>163.3777207351215</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H691" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I691" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J691" t="n">
+        <v>162.2665215241</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E692" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H692" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I692" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J692" t="n">
+        <v>164.6537241776894</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H693" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I693" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J693" t="n">
+        <v>164.2797072588876</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E694" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H694" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I694" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J694" t="n">
+        <v>163.8119391558113</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>2188.14990234375</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1382.900024414062</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1678.300048828125</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1888.550048828125</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1068</v>
+      </c>
+      <c r="H695" t="n">
+        <v>8205.900024414062</v>
+      </c>
+      <c r="I695" t="n">
+        <v>-0.01130161909471061</v>
+      </c>
+      <c r="J695" t="n">
+        <v>161.9605990163064</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>2218.5</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1413.150024414062</v>
+      </c>
+      <c r="E696" t="n">
+        <v>1685.699951171875</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1837.949951171875</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="H696" t="n">
+        <v>8231.249877929688</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.003089222808004548</v>
+      </c>
+      <c r="J696" t="n">
+        <v>162.4609313927857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J616"/>
+  <dimension ref="A1:J637"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19269,6 +19269,657 @@
         <v>188.2731948219999</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>2232.75</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1537.550048828125</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1687.900024414062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1970.599975585938</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8540.35009765625</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>188.2731948219999</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>2240.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8497</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.005075915759957742</v>
+      </c>
+      <c r="J618" t="n">
+        <v>187.3175359452253</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>2277.25</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1686.550048828125</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1924.650024414062</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8572.900146484375</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.008932581674046723</v>
+      </c>
+      <c r="J619" t="n">
+        <v>188.9907651340372</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>2290.199951171875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8604.14990234375</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.00364517903223101</v>
+      </c>
+      <c r="J620" t="n">
+        <v>189.6796703083891</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8547.5</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.006584020848860234</v>
+      </c>
+      <c r="J621" t="n">
+        <v>188.4308154044737</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8508.5</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.004562737642585551</v>
+      </c>
+      <c r="J622" t="n">
+        <v>187.5710550300046</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1545.550048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1727.849975585938</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1912.150024414062</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8521.300048828125</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.001504383713712758</v>
+      </c>
+      <c r="J623" t="n">
+        <v>187.8532338703557</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>2209.39990234375</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8507.349853515625</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.001637097066476197</v>
+      </c>
+      <c r="J624" t="n">
+        <v>187.5456998922585</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1592.849975585938</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8591.749877929688</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.009920836202496664</v>
+      </c>
+      <c r="J625" t="n">
+        <v>189.4063100613722</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1753.699951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1923.300048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8634.5</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.004975717714982386</v>
+      </c>
+      <c r="J626" t="n">
+        <v>190.348742393674</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1577.75</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1741.449951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1900.949951171875</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8587.849975585938</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.005402747630327465</v>
+      </c>
+      <c r="J627" t="n">
+        <v>189.3203361767708</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>2270.39990234375</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8531.649780273438</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.006544151967287428</v>
+      </c>
+      <c r="J628" t="n">
+        <v>188.081395126332</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2224.949951171875</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1543.050048828125</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1646.050048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8351</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.02117407358786916</v>
+      </c>
+      <c r="J629" t="n">
+        <v>184.098945825418</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2171.89990234375</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1515.050048828125</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1886.5</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8277.699951171875</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.00877739777608969</v>
+      </c>
+      <c r="J630" t="n">
+        <v>182.4830361477495</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1636.75</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8221.39990234375</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.0068014121265841</v>
+      </c>
+      <c r="J631" t="n">
+        <v>181.2418938127983</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2182.25</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1440.400024414062</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="H632" t="n">
+        <v>8342.349975585938</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.01471161537923817</v>
+      </c>
+      <c r="J632" t="n">
+        <v>183.9082548451769</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2215.75</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1414.25</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1944.349975585938</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="H633" t="n">
+        <v>8323.400024414062</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.002271536344954651</v>
+      </c>
+      <c r="J633" t="n">
+        <v>183.4905005601589</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2221.10009765625</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1416.400024414062</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1689.199951171875</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1909.550048828125</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="H634" t="n">
+        <v>8299.700073242188</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.002847388219040138</v>
+      </c>
+      <c r="J634" t="n">
+        <v>182.9680318705581</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>2188.14990234375</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1382.900024414062</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1678.300048828125</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1888.550048828125</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1068</v>
+      </c>
+      <c r="H635" t="n">
+        <v>8205.900024414062</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.01130161909471061</v>
+      </c>
+      <c r="J635" t="n">
+        <v>180.9001968678482</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2218.5</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1413.150024414062</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1685.699951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1837.949951171875</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="H636" t="n">
+        <v>8231.249877929688</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.003089222808004548</v>
+      </c>
+      <c r="J636" t="n">
+        <v>181.4590378819848</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>2191.10009765625</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1420</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1673.5</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1068.550048828125</v>
+      </c>
+      <c r="H637" t="n">
+        <v>8228.150146484375</v>
+      </c>
+      <c r="I637" t="n">
+        <v>-0.0003765808949165495</v>
+      </c>
+      <c r="J637" t="n">
+        <v>181.3907038751086</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -16,8 +16,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -69,9 +69,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -79,7 +79,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -18646,7 +18647,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="7" t="n">
+      <c r="A595" s="8" t="n">
         <v>45533</v>
       </c>
       <c r="B595" s="5" t="n"/>
@@ -18676,7 +18677,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="7" t="n">
+      <c r="A596" s="8" t="n">
         <v>45534</v>
       </c>
       <c r="B596" s="5" t="n"/>
@@ -18706,7 +18707,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="7" t="n">
+      <c r="A597" s="8" t="n">
         <v>45537</v>
       </c>
       <c r="C597" t="n">
@@ -18735,7 +18736,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="7" t="n">
+      <c r="A598" s="8" t="n">
         <v>45538</v>
       </c>
       <c r="C598" t="n">
@@ -18764,7 +18765,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="7" t="n">
+      <c r="A599" s="8" t="n">
         <v>45539</v>
       </c>
       <c r="C599" t="n">
@@ -18793,7 +18794,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="7" t="n">
+      <c r="A600" s="8" t="n">
         <v>45540</v>
       </c>
       <c r="C600" t="n">
@@ -18822,7 +18823,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="7" t="n">
+      <c r="A601" s="8" t="n">
         <v>45541</v>
       </c>
       <c r="C601" t="n">
@@ -18851,7 +18852,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="7" t="n">
+      <c r="A602" s="8" t="n">
         <v>45544</v>
       </c>
       <c r="C602" t="n">
@@ -18880,7 +18881,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="7" t="n">
+      <c r="A603" s="8" t="n">
         <v>45545</v>
       </c>
       <c r="C603" t="n">
@@ -18909,7 +18910,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="7" t="n">
+      <c r="A604" s="8" t="n">
         <v>45546</v>
       </c>
       <c r="C604" t="n">
@@ -18938,7 +18939,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="7" t="n">
+      <c r="A605" s="8" t="n">
         <v>45547</v>
       </c>
       <c r="C605" t="n">
@@ -18967,7 +18968,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="7" t="n">
+      <c r="A606" s="8" t="n">
         <v>45548</v>
       </c>
       <c r="C606" t="n">
@@ -18996,7 +18997,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="7" t="n">
+      <c r="A607" s="8" t="n">
         <v>45551</v>
       </c>
       <c r="C607" t="n">
@@ -19025,7 +19026,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="7" t="n">
+      <c r="A608" s="8" t="n">
         <v>45552</v>
       </c>
       <c r="C608" t="n">
@@ -19054,7 +19055,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="7" t="n">
+      <c r="A609" s="8" t="n">
         <v>45553</v>
       </c>
       <c r="C609" t="n">
@@ -19083,7 +19084,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="7" t="n">
+      <c r="A610" s="8" t="n">
         <v>45554</v>
       </c>
       <c r="C610" t="n">
@@ -19112,7 +19113,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="7" t="n">
+      <c r="A611" s="8" t="n">
         <v>45555</v>
       </c>
       <c r="C611" t="n">
@@ -19141,7 +19142,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="7" t="n">
+      <c r="A612" s="8" t="n">
         <v>45558</v>
       </c>
       <c r="C612" t="n">
@@ -19170,7 +19171,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="7" t="n">
+      <c r="A613" s="8" t="n">
         <v>45559</v>
       </c>
       <c r="C613" t="n">
@@ -19199,7 +19200,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="7" t="n">
+      <c r="A614" s="8" t="n">
         <v>45560</v>
       </c>
       <c r="C614" t="n">
@@ -19228,7 +19229,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="7" t="n">
+      <c r="A615" s="8" t="n">
         <v>45561</v>
       </c>
       <c r="C615" t="n">
@@ -19257,7 +19258,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="7" t="n">
+      <c r="A616" s="8" t="n">
         <v>45562</v>
       </c>
       <c r="C616" t="n">
@@ -19286,7 +19287,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="7" t="n">
+      <c r="A617" s="8" t="n">
         <v>45565</v>
       </c>
       <c r="C617" t="n">
@@ -19312,6 +19313,64 @@
       </c>
       <c r="J617" t="n">
         <v>189.5998134375601</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C618" t="n">
+        <v>2194.39990234375</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1400.300048828125</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1666.949951171875</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1834.949951171875</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8176.949829101562</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>189.5998134375601</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C619" t="n">
+        <v>2183.60009765625</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1362.699951171875</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1644.349975585938</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1741.699951171875</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8001.400024414062</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.02146886166070416</v>
+      </c>
+      <c r="J619" t="n">
+        <v>185.5293212719738</v>
       </c>
     </row>
   </sheetData>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J619"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19373,6 +19373,64 @@
         <v>185.5293212719738</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C620" t="n">
+        <v>2194.39990234375</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1400.300048828125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1666.949951171875</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1834.949951171875</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8176.949829101562</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>185.5293212719738</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2183.60009765625</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1362.699951171875</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1644.349975585938</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1741.699951171875</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8001.400024414062</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.02146886166070416</v>
+      </c>
+      <c r="J621" t="n">
+        <v>181.5462179395815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19431,6 +19431,64 @@
         <v>181.5462179395815</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C622" t="n">
+        <v>2194.39990234375</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1400.300048828125</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1666.949951171875</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1834.949951171875</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8176.949829101562</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="n">
+        <v>181.5462179395815</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2183.60009765625</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1362.699951171875</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1644.349975585938</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1741.699951171875</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8001.400024414062</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.02146886166070416</v>
+      </c>
+      <c r="J623" t="n">
+        <v>177.6486273016126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -71,7 +71,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -81,6 +81,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19489,6 +19490,64 @@
         <v>177.6486273016126</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="9" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C624" t="n">
+        <v>2194.39990234375</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1400.300048828125</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1666.949951171875</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1834.949951171875</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8176.949829101562</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>177.6486273016126</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="9" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C625" t="n">
+        <v>2183.60009765625</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1362.699951171875</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1644.349975585938</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1741.699951171875</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8001.400024414062</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.02146886166070416</v>
+      </c>
+      <c r="J625" t="n">
+        <v>173.8347134978603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19547,6 +19547,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2220</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1434.5</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1796.050048828125</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1809</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8324.35009765625</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19576,6 +19576,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2220</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1434.5</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1796.050048828125</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1809</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8324.35009765625</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19605,6 +19605,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C628" t="n">
+        <v>2220</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1434.5</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1796.050048828125</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1809</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8324.35009765625</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19634,6 +19634,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C629" t="n">
+        <v>2220</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1434.5</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1796.050048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1809</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8324.35009765625</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19663,6 +19663,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C630" t="n">
+        <v>2220</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1434.5</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1796.050048828125</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1809</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8324.35009765625</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19547,6 +19547,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2243.89990234375</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1818.150024414062</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1830.949951171875</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8375.949829101562</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19576,6 +19576,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2243.89990234375</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1818.150024414062</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1830.949951171875</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8375.949829101562</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19605,6 +19605,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C628" t="n">
+        <v>2243.89990234375</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1818.150024414062</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1830.949951171875</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8375.949829101562</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19634,6 +19634,35 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C629" t="n">
+        <v>2243.89990234375</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1818.150024414062</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1830.949951171875</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8375.949829101562</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19663,6 +19663,64 @@
         <v>191.7646856017204</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="8" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C630" t="n">
+        <v>2250.89990234375</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1389.400024414062</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1804.900024414062</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1885.599975585938</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1058.150024414062</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8388.949951171875</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>191.7646856017204</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="8" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C631" t="n">
+        <v>2195.300048828125</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1398.900024414062</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1781.449951171875</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1905.599975585938</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1020.099975585938</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8301.349975585938</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.01044230518668197</v>
+      </c>
+      <c r="J631" t="n">
+        <v>189.7622202306391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J631"/>
+  <dimension ref="A1:J632"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="C603" sqref="C603"/>
@@ -19721,6 +19721,35 @@
         <v>189.7622202306391</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="8" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C632" t="n">
+        <v>2176.300048828125</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1389.199951171875</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1735.300048828125</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1884.449951171875</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1020.849975585938</v>
+      </c>
+      <c r="H632" t="n">
+        <v>8206.099975585938</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="n">
+        <v>189.7622202306391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
       <selection activeCell="E582" sqref="E582"/>
@@ -19702,6 +19702,35 @@
         <v>189.6562630112902</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="10" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C631" t="n">
+        <v>2151.949951171875</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1373.300048828125</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1716.800048828125</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1906.050048828125</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1005.700012207031</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8153.800109863281</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="n">
+        <v>189.6562630112902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Pharma_stocks.xlsx
+++ b/NAV/Pharma_stocks.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -102,7 +102,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J761"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
       <selection activeCell="A658" sqref="A658"/>
@@ -20547,7 +20548,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="12" t="n">
+      <c r="A659" s="13" t="n">
         <v>45623</v>
       </c>
       <c r="C659" t="n">
@@ -20576,7 +20577,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="12" t="n">
+      <c r="A660" s="13" t="n">
         <v>45624</v>
       </c>
       <c r="C660" t="n">
@@ -20605,7 +20606,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="12" t="n">
+      <c r="A661" s="13" t="n">
         <v>45625</v>
       </c>
       <c r="C661" t="n">
@@ -20634,7 +20635,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="12" t="n">
+      <c r="A662" s="13" t="n">
         <v>45628</v>
       </c>
       <c r="C662" t="n">
@@ -20663,7 +20664,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="12" t="n">
+      <c r="A663" s="13" t="n">
         <v>45629</v>
       </c>
       <c r="C663" t="n">
@@ -20692,7 +20693,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="12" t="n">
+      <c r="A664" s="13" t="n">
         <v>45630</v>
       </c>
       <c r="C664" t="n">
@@ -20721,7 +20722,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="12" t="n">
+      <c r="A665" s="13" t="n">
         <v>45631</v>
       </c>
       <c r="C665" t="n">
@@ -20750,7 +20751,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="12" t="n">
+      <c r="A666" s="13" t="n">
         <v>45632</v>
       </c>
       <c r="C666" t="n">
@@ -20779,7 +20780,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="12" t="n">
+      <c r="A667" s="13" t="n">
         <v>45635</v>
       </c>
       <c r="C667" t="n">
@@ -20808,7 +20809,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="12" t="n">
+      <c r="A668" s="13" t="n">
         <v>45636</v>
       </c>
       <c r="C668" t="n">
@@ -20837,7 +20838,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="12" t="n">
+      <c r="A669" s="13" t="n">
         <v>45637</v>
       </c>
       <c r="C669" t="n">
@@ -20866,7 +20867,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="12" t="n">
+      <c r="A670" s="13" t="n">
         <v>45638</v>
       </c>
       <c r="C670" t="n">
@@ -20895,7 +20896,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="12" t="n">
+      <c r="A671" s="13" t="n">
         <v>45639</v>
       </c>
       <c r="C671" t="n">
@@ -20924,7 +20925,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="12" t="n">
+      <c r="A672" s="13" t="n">
         <v>45642</v>
       </c>
       <c r="C672" t="n">
@@ -20953,7 +20954,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="12" t="n">
+      <c r="A673" s="13" t="n">
         <v>45643</v>
       </c>
       <c r="C673" t="n">
@@ -20982,7 +20983,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="12" t="n">
+      <c r="A674" s="13" t="n">
         <v>45644</v>
       </c>
       <c r="C674" t="n">
@@ -21011,7 +21012,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="12" t="n">
+      <c r="A675" s="13" t="n">
         <v>45645</v>
       </c>
       <c r="C675" t="n">
@@ -21040,7 +21041,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="12" t="n">
+      <c r="A676" s="13" t="n">
         <v>45646</v>
       </c>
       <c r="C676" t="n">
@@ -21069,7 +21070,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="12" t="n">
+      <c r="A677" s="13" t="n">
         <v>45649</v>
       </c>
       <c r="C677" t="n">
@@ -21098,7 +21099,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="12" t="n">
+      <c r="A678" s="13" t="n">
         <v>45650</v>
       </c>
       <c r="C678" t="n">
@@ -21127,7 +21128,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="12" t="n">
+      <c r="A679" s="13" t="n">
         <v>45652</v>
       </c>
       <c r="C679" t="n">
@@ -21156,7 +21157,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="12" t="n">
+      <c r="A680" s="13" t="n">
         <v>45653</v>
       </c>
       <c r="C680" t="n">
@@ -21185,7 +21186,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="12" t="n">
+      <c r="A681" s="13" t="n">
         <v>45656</v>
       </c>
       <c r="C681" t="n">
@@ -21214,7 +21215,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="12" t="n">
+      <c r="A682" s="13" t="n">
         <v>45657</v>
       </c>
       <c r="C682" t="n">
@@ -21243,7 +21244,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="12" t="n">
+      <c r="A683" s="13" t="n">
         <v>45658</v>
       </c>
       <c r="C683" t="n">
@@ -21272,7 +21273,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="12" t="n">
+      <c r="A684" s="13" t="n">
         <v>45659</v>
       </c>
       <c r="C684" t="n">
@@ -21301,7 +21302,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="12" t="n">
+      <c r="A685" s="13" t="n">
         <v>45660</v>
       </c>
       <c r="C685" t="n">
@@ -21330,7 +21331,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="12" t="n">
+      <c r="A686" s="13" t="n">
         <v>45663</v>
       </c>
       <c r="C686" t="n">
@@ -21359,7 +21360,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="12" t="n">
+      <c r="A687" s="13" t="n">
         <v>45664</v>
       </c>
       <c r="C687" t="n">
@@ -21388,7 +21389,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="12" t="n">
+      <c r="A688" s="13" t="n">
         <v>45665</v>
       </c>
       <c r="C688" t="n">
@@ -21417,7 +21418,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="12" t="n">
+      <c r="A689" s="13" t="n">
         <v>45666</v>
       </c>
       <c r="C689" t="n">
@@ -21446,7 +21447,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="12" t="n">
+      <c r="A690" s="13" t="n">
         <v>45667</v>
       </c>
       <c r="C690" t="n">
@@ -21475,7 +21476,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="12" t="n">
+      <c r="A691" s="13" t="n">
         <v>45670</v>
       </c>
       <c r="C691" t="n">
@@ -21504,7 +21505,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="12" t="n">
+      <c r="A692" s="13" t="n">
         <v>45671</v>
       </c>
       <c r="C692" t="n">
@@ -21533,7 +21534,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="12" t="n">
+      <c r="A693" s="13" t="n">
         <v>45672</v>
       </c>
       <c r="C693" t="n">
@@ -21562,7 +21563,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="12" t="n">
+      <c r="A694" s="13" t="n">
         <v>45673</v>
       </c>
       <c r="C694" t="n">
@@ -21591,7 +21592,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="12" t="n">
+      <c r="A695" s="13" t="n">
         <v>45674</v>
       </c>
       <c r="C695" t="n">
@@ -21620,7 +21621,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="12" t="n">
+      <c r="A696" s="13" t="n">
         <v>45677</v>
       </c>
       <c r="C696" t="n">
@@ -21649,7 +21650,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="12" t="n">
+      <c r="A697" s="13" t="n">
         <v>45678</v>
       </c>
       <c r="C697" t="n">
@@ -21678,7 +21679,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="12" t="n">
+      <c r="A698" s="13" t="n">
         <v>45679</v>
       </c>
       <c r="C698" t="n">
@@ -21707,7 +21708,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="12" t="n">
+      <c r="A699" s="13" t="n">
         <v>45680</v>
       </c>
       <c r="C699" t="n">
@@ -21736,7 +21737,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="12" t="n">
+      <c r="A700" s="13" t="n">
         <v>45681</v>
       </c>
       <c r="C700" t="n">
@@ -21765,7 +21766,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="12" t="n">
+      <c r="A701" s="13" t="n">
         <v>45684</v>
       </c>
       <c r="C701" t="n">
@@ -21794,7 +21795,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="12" t="n">
+      <c r="A702" s="13" t="n">
         <v>45685</v>
       </c>
       <c r="C702" t="n">
@@ -21820,6 +21821,1717 @@
       </c>
       <c r="J702" t="n">
         <v>167.6291566213013</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="13" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1181.199951171875</v>
+      </c>
+      <c r="D703" t="n">
+        <v>1719.900024414062</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1303.199951171875</v>
+      </c>
+      <c r="F703" t="n">
+        <v>932.1500244140625</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1171</v>
+      </c>
+      <c r="H703" t="n">
+        <v>7488.64990234375</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.01161746146778758</v>
+      </c>
+      <c r="J703" t="n">
+        <v>169.576581889227</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="13" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1194.5</v>
+      </c>
+      <c r="D704" t="n">
+        <v>1746</v>
+      </c>
+      <c r="E704" t="n">
+        <v>1304.199951171875</v>
+      </c>
+      <c r="F704" t="n">
+        <v>953.4500122070312</v>
+      </c>
+      <c r="G704" t="n">
+        <v>1161.849975585938</v>
+      </c>
+      <c r="H704" t="n">
+        <v>7554.499938964844</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.008793312209786229</v>
+      </c>
+      <c r="J704" t="n">
+        <v>171.0677217172473</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="13" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1217.349975585938</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1763.900024414062</v>
+      </c>
+      <c r="E705" t="n">
+        <v>1387.150024414062</v>
+      </c>
+      <c r="F705" t="n">
+        <v>970.25</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1173.849975585938</v>
+      </c>
+      <c r="H705" t="n">
+        <v>7729.849975585938</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.02321133602988964</v>
+      </c>
+      <c r="J705" t="n">
+        <v>175.038432089894</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="13" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1204.949951171875</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1778.949951171875</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1352.199951171875</v>
+      </c>
+      <c r="F706" t="n">
+        <v>975.7999877929688</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1180.75</v>
+      </c>
+      <c r="H706" t="n">
+        <v>7697.599792480469</v>
+      </c>
+      <c r="I706" t="n">
+        <v>-0.004172161582350002</v>
+      </c>
+      <c r="J706" t="n">
+        <v>174.3081434680938</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="13" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1203.849975585938</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1716.400024414062</v>
+      </c>
+      <c r="E707" t="n">
+        <v>1354.949951171875</v>
+      </c>
+      <c r="F707" t="n">
+        <v>962.7000122070312</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1161.650024414062</v>
+      </c>
+      <c r="H707" t="n">
+        <v>7603.399963378906</v>
+      </c>
+      <c r="I707" t="n">
+        <v>-0.01223755867297533</v>
+      </c>
+      <c r="J707" t="n">
+        <v>172.1750373352255</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="13" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1219.949951171875</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1742.150024414062</v>
+      </c>
+      <c r="E708" t="n">
+        <v>1346.800048828125</v>
+      </c>
+      <c r="F708" t="n">
+        <v>974</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1235.449951171875</v>
+      </c>
+      <c r="H708" t="n">
+        <v>7738.299926757812</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.01774205803043899</v>
+      </c>
+      <c r="J708" t="n">
+        <v>175.2297768390201</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="13" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1227.550048828125</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1713.800048828125</v>
+      </c>
+      <c r="E709" t="n">
+        <v>1356.099975585938</v>
+      </c>
+      <c r="F709" t="n">
+        <v>977</v>
+      </c>
+      <c r="G709" t="n">
+        <v>1283.599975585938</v>
+      </c>
+      <c r="H709" t="n">
+        <v>7785.60009765625</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.006112475782294379</v>
+      </c>
+      <c r="J709" t="n">
+        <v>176.3008646062855</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="13" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1236.650024414062</v>
+      </c>
+      <c r="D710" t="n">
+        <v>1716.449951171875</v>
+      </c>
+      <c r="E710" t="n">
+        <v>1373.699951171875</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1008.200012207031</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1328</v>
+      </c>
+      <c r="H710" t="n">
+        <v>7899.649963378906</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.01464882145141123</v>
+      </c>
+      <c r="J710" t="n">
+        <v>178.8834644936324</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="13" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1240.400024414062</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1671.25</v>
+      </c>
+      <c r="E711" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F711" t="n">
+        <v>994.1500244140625</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1319.400024414062</v>
+      </c>
+      <c r="H711" t="n">
+        <v>7870.60009765625</v>
+      </c>
+      <c r="I711" t="n">
+        <v>-0.003677361130850764</v>
+      </c>
+      <c r="J711" t="n">
+        <v>178.2256453943516</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="13" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1220.949951171875</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1678.550048828125</v>
+      </c>
+      <c r="E712" t="n">
+        <v>1394.150024414062</v>
+      </c>
+      <c r="F712" t="n">
+        <v>964.6500244140625</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1282</v>
+      </c>
+      <c r="H712" t="n">
+        <v>7761.25</v>
+      </c>
+      <c r="I712" t="n">
+        <v>-0.01389348922565801</v>
+      </c>
+      <c r="J712" t="n">
+        <v>175.7494693103292</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="13" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1209.800048828125</v>
+      </c>
+      <c r="D713" t="n">
+        <v>1613.150024414062</v>
+      </c>
+      <c r="E713" t="n">
+        <v>1350.599975585938</v>
+      </c>
+      <c r="F713" t="n">
+        <v>942.25</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1242.449951171875</v>
+      </c>
+      <c r="H713" t="n">
+        <v>7568.050048828125</v>
+      </c>
+      <c r="I713" t="n">
+        <v>-0.02489289111571912</v>
+      </c>
+      <c r="J713" t="n">
+        <v>171.3745569071418</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="13" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1215.849975585938</v>
+      </c>
+      <c r="D714" t="n">
+        <v>1626.099975585938</v>
+      </c>
+      <c r="E714" t="n">
+        <v>1381.150024414062</v>
+      </c>
+      <c r="F714" t="n">
+        <v>934.0499877929688</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1218.800048828125</v>
+      </c>
+      <c r="H714" t="n">
+        <v>7591.799987792969</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.003138184712259046</v>
+      </c>
+      <c r="J714" t="n">
+        <v>171.912361921698</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="13" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1223.599975585938</v>
+      </c>
+      <c r="D715" t="n">
+        <v>1683.699951171875</v>
+      </c>
+      <c r="E715" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F715" t="n">
+        <v>942.8499755859375</v>
+      </c>
+      <c r="G715" t="n">
+        <v>975.0499877929688</v>
+      </c>
+      <c r="H715" t="n">
+        <v>7377.799865722656</v>
+      </c>
+      <c r="I715" t="n">
+        <v>-0.02818832456260811</v>
+      </c>
+      <c r="J715" t="n">
+        <v>167.0664404675246</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="13" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1197.050048828125</v>
+      </c>
+      <c r="D716" t="n">
+        <v>1669.300048828125</v>
+      </c>
+      <c r="E716" t="n">
+        <v>1328.25</v>
+      </c>
+      <c r="F716" t="n">
+        <v>901.8499755859375</v>
+      </c>
+      <c r="G716" t="n">
+        <v>883.2000122070312</v>
+      </c>
+      <c r="H716" t="n">
+        <v>7176.700134277344</v>
+      </c>
+      <c r="I716" t="n">
+        <v>-0.02725741211544978</v>
+      </c>
+      <c r="J716" t="n">
+        <v>162.51264164904</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="13" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1198.949951171875</v>
+      </c>
+      <c r="D717" t="n">
+        <v>1640.75</v>
+      </c>
+      <c r="E717" t="n">
+        <v>1326.75</v>
+      </c>
+      <c r="F717" t="n">
+        <v>923.9000244140625</v>
+      </c>
+      <c r="G717" t="n">
+        <v>870.4500122070312</v>
+      </c>
+      <c r="H717" t="n">
+        <v>7159.749938964844</v>
+      </c>
+      <c r="I717" t="n">
+        <v>-0.002361836916042026</v>
+      </c>
+      <c r="J717" t="n">
+        <v>162.1288132926698</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="13" t="n">
+        <v>45706</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1197.400024414062</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1614.949951171875</v>
+      </c>
+      <c r="E718" t="n">
+        <v>1367.800048828125</v>
+      </c>
+      <c r="F718" t="n">
+        <v>914.0499877929688</v>
+      </c>
+      <c r="G718" t="n">
+        <v>834.5499877929688</v>
+      </c>
+      <c r="H718" t="n">
+        <v>7126.150024414062</v>
+      </c>
+      <c r="I718" t="n">
+        <v>-0.004692889393793427</v>
+      </c>
+      <c r="J718" t="n">
+        <v>161.3679607043403</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="13" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1165.849975585938</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1674.199951171875</v>
+      </c>
+      <c r="E719" t="n">
+        <v>1374.349975585938</v>
+      </c>
+      <c r="F719" t="n">
+        <v>891.4500122070312</v>
+      </c>
+      <c r="G719" t="n">
+        <v>813</v>
+      </c>
+      <c r="H719" t="n">
+        <v>7084.699890136719</v>
+      </c>
+      <c r="I719" t="n">
+        <v>-0.00581662386216068</v>
+      </c>
+      <c r="J719" t="n">
+        <v>160.4293439735193</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="13" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1170.949951171875</v>
+      </c>
+      <c r="D720" t="n">
+        <v>1630.050048828125</v>
+      </c>
+      <c r="E720" t="n">
+        <v>1404.550048828125</v>
+      </c>
+      <c r="F720" t="n">
+        <v>899.6500244140625</v>
+      </c>
+      <c r="G720" t="n">
+        <v>793.1500244140625</v>
+      </c>
+      <c r="H720" t="n">
+        <v>7069.300048828125</v>
+      </c>
+      <c r="I720" t="n">
+        <v>-0.002173675885697477</v>
+      </c>
+      <c r="J720" t="n">
+        <v>160.0806225771657</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="13" t="n">
+        <v>45709</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1151.800048828125</v>
+      </c>
+      <c r="D721" t="n">
+        <v>1606.849975585938</v>
+      </c>
+      <c r="E721" t="n">
+        <v>1396.800048828125</v>
+      </c>
+      <c r="F721" t="n">
+        <v>885.3499755859375</v>
+      </c>
+      <c r="G721" t="n">
+        <v>797.9500122070312</v>
+      </c>
+      <c r="H721" t="n">
+        <v>6990.550109863281</v>
+      </c>
+      <c r="I721" t="n">
+        <v>-0.01113970809286813</v>
+      </c>
+      <c r="J721" t="n">
+        <v>158.2973711703315</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="13" t="n">
+        <v>45712</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1164.550048828125</v>
+      </c>
+      <c r="D722" t="n">
+        <v>1570.900024414062</v>
+      </c>
+      <c r="E722" t="n">
+        <v>1393.25</v>
+      </c>
+      <c r="F722" t="n">
+        <v>891.25</v>
+      </c>
+      <c r="G722" t="n">
+        <v>823.0999755859375</v>
+      </c>
+      <c r="H722" t="n">
+        <v>7007.60009765625</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.00243900516053982</v>
+      </c>
+      <c r="J722" t="n">
+        <v>158.6834592755159</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="13" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1128.150024414062</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E723" t="n">
+        <v>1465.550048828125</v>
+      </c>
+      <c r="F723" t="n">
+        <v>882.9500122070312</v>
+      </c>
+      <c r="G723" t="n">
+        <v>821.9000244140625</v>
+      </c>
+      <c r="H723" t="n">
+        <v>7018.650085449219</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0.001576857645838625</v>
+      </c>
+      <c r="J723" t="n">
+        <v>158.9336805015426</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="13" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1125.550048828125</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1577.800048828125</v>
+      </c>
+      <c r="E724" t="n">
+        <v>1491</v>
+      </c>
+      <c r="F724" t="n">
+        <v>886.4500122070312</v>
+      </c>
+      <c r="G724" t="n">
+        <v>796.75</v>
+      </c>
+      <c r="H724" t="n">
+        <v>7003.100158691406</v>
+      </c>
+      <c r="I724" t="n">
+        <v>-0.002215515315409437</v>
+      </c>
+      <c r="J724" t="n">
+        <v>158.581560498257</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="13" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1116.5</v>
+      </c>
+      <c r="D725" t="n">
+        <v>1644.349975585938</v>
+      </c>
+      <c r="E725" t="n">
+        <v>1444.5</v>
+      </c>
+      <c r="F725" t="n">
+        <v>876.5999755859375</v>
+      </c>
+      <c r="G725" t="n">
+        <v>770.7000122070312</v>
+      </c>
+      <c r="H725" t="n">
+        <v>6969.149963378906</v>
+      </c>
+      <c r="I725" t="n">
+        <v>-0.004847880873210859</v>
+      </c>
+      <c r="J725" t="n">
+        <v>157.8127759842736</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="13" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1119.599975585938</v>
+      </c>
+      <c r="D726" t="n">
+        <v>1598.75</v>
+      </c>
+      <c r="E726" t="n">
+        <v>1615.599975585938</v>
+      </c>
+      <c r="F726" t="n">
+        <v>870.4500122070312</v>
+      </c>
+      <c r="G726" t="n">
+        <v>795.6500244140625</v>
+      </c>
+      <c r="H726" t="n">
+        <v>7119.649963378906</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0.02159517312596785</v>
+      </c>
+      <c r="J726" t="n">
+        <v>161.2207702031436</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="13" t="n">
+        <v>45720</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1120.150024414062</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1606.849975585938</v>
+      </c>
+      <c r="E727" t="n">
+        <v>1559.849975585938</v>
+      </c>
+      <c r="F727" t="n">
+        <v>871.6500244140625</v>
+      </c>
+      <c r="G727" t="n">
+        <v>802.8499755859375</v>
+      </c>
+      <c r="H727" t="n">
+        <v>7081.5</v>
+      </c>
+      <c r="I727" t="n">
+        <v>-0.005358404356272693</v>
+      </c>
+      <c r="J727" t="n">
+        <v>160.3568841257654</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="13" t="n">
+        <v>45721</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1126.400024414062</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1643.650024414062</v>
+      </c>
+      <c r="E728" t="n">
+        <v>1604.550048828125</v>
+      </c>
+      <c r="F728" t="n">
+        <v>887.4500122070312</v>
+      </c>
+      <c r="G728" t="n">
+        <v>819.8499755859375</v>
+      </c>
+      <c r="H728" t="n">
+        <v>7208.300109863281</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.01790582642989215</v>
+      </c>
+      <c r="J728" t="n">
+        <v>163.2282066597597</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="13" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1140.099975585938</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1592.150024414062</v>
+      </c>
+      <c r="E729" t="n">
+        <v>1579.199951171875</v>
+      </c>
+      <c r="F729" t="n">
+        <v>907.4000244140625</v>
+      </c>
+      <c r="G729" t="n">
+        <v>823</v>
+      </c>
+      <c r="H729" t="n">
+        <v>7181.949951171875</v>
+      </c>
+      <c r="I729" t="n">
+        <v>-0.003655530192943927</v>
+      </c>
+      <c r="J729" t="n">
+        <v>162.6315210219748</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="13" t="n">
+        <v>45723</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1133.25</v>
+      </c>
+      <c r="D730" t="n">
+        <v>1578.25</v>
+      </c>
+      <c r="E730" t="n">
+        <v>1566.199951171875</v>
+      </c>
+      <c r="F730" t="n">
+        <v>900.7999877929688</v>
+      </c>
+      <c r="G730" t="n">
+        <v>825</v>
+      </c>
+      <c r="H730" t="n">
+        <v>7136.749938964844</v>
+      </c>
+      <c r="I730" t="n">
+        <v>-0.006293557113922241</v>
+      </c>
+      <c r="J730" t="n">
+        <v>161.607990255899</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="13" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1120.199951171875</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1590.800048828125</v>
+      </c>
+      <c r="E731" t="n">
+        <v>1583.099975585938</v>
+      </c>
+      <c r="F731" t="n">
+        <v>893.7000122070312</v>
+      </c>
+      <c r="G731" t="n">
+        <v>811.5</v>
+      </c>
+      <c r="H731" t="n">
+        <v>7119.499938964844</v>
+      </c>
+      <c r="I731" t="n">
+        <v>-0.002417066612607425</v>
+      </c>
+      <c r="J731" t="n">
+        <v>161.2173729783209</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="13" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1116.650024414062</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1568.099975585938</v>
+      </c>
+      <c r="E732" t="n">
+        <v>1582.599975585938</v>
+      </c>
+      <c r="F732" t="n">
+        <v>899.8499755859375</v>
+      </c>
+      <c r="G732" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="H732" t="n">
+        <v>7071.899963378906</v>
+      </c>
+      <c r="I732" t="n">
+        <v>-0.006685859399397425</v>
+      </c>
+      <c r="J732" t="n">
+        <v>160.1394962898476</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="13" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1105.150024414062</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1504.400024414062</v>
+      </c>
+      <c r="E733" t="n">
+        <v>1573.199951171875</v>
+      </c>
+      <c r="F733" t="n">
+        <v>888.25</v>
+      </c>
+      <c r="G733" t="n">
+        <v>783.9000244140625</v>
+      </c>
+      <c r="H733" t="n">
+        <v>6960.050048828125</v>
+      </c>
+      <c r="I733" t="n">
+        <v>-0.01581610530833076</v>
+      </c>
+      <c r="J733" t="n">
+        <v>157.6067131525043</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="13" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1107.949951171875</v>
+      </c>
+      <c r="D734" t="n">
+        <v>1517.800048828125</v>
+      </c>
+      <c r="E734" t="n">
+        <v>1542.150024414062</v>
+      </c>
+      <c r="F734" t="n">
+        <v>883.0999755859375</v>
+      </c>
+      <c r="G734" t="n">
+        <v>780.8499755859375</v>
+      </c>
+      <c r="H734" t="n">
+        <v>6939.799926757812</v>
+      </c>
+      <c r="I734" t="n">
+        <v>-0.002909479375614841</v>
+      </c>
+      <c r="J734" t="n">
+        <v>157.1481596711287</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="13" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1150.699951171875</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1522.25</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1578.150024414062</v>
+      </c>
+      <c r="F735" t="n">
+        <v>892.7000122070312</v>
+      </c>
+      <c r="G735" t="n">
+        <v>800.5</v>
+      </c>
+      <c r="H735" t="n">
+        <v>7094.999938964844</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.02236375887561628</v>
+      </c>
+      <c r="J735" t="n">
+        <v>160.6625832217606</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="13" t="n">
+        <v>45734</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1150.699951171875</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1522.25</v>
+      </c>
+      <c r="E736" t="n">
+        <v>1578.150024414062</v>
+      </c>
+      <c r="F736" t="n">
+        <v>892.7000122070312</v>
+      </c>
+      <c r="G736" t="n">
+        <v>800.5</v>
+      </c>
+      <c r="H736" t="n">
+        <v>7094.999938964844</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0</v>
+      </c>
+      <c r="J736" t="n">
+        <v>160.6625832217606</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="13" t="n">
+        <v>45735</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1172.099975585938</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1599.349975585938</v>
+      </c>
+      <c r="E737" t="n">
+        <v>1644.949951171875</v>
+      </c>
+      <c r="F737" t="n">
+        <v>909.9000244140625</v>
+      </c>
+      <c r="G737" t="n">
+        <v>825.4000244140625</v>
+      </c>
+      <c r="H737" t="n">
+        <v>7323.799926757812</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.03224806057240791</v>
+      </c>
+      <c r="J737" t="n">
+        <v>165.8436399372155</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="13" t="n">
+        <v>45736</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1187.199951171875</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E738" t="n">
+        <v>1685.75</v>
+      </c>
+      <c r="F738" t="n">
+        <v>917.25</v>
+      </c>
+      <c r="G738" t="n">
+        <v>826.0999755859375</v>
+      </c>
+      <c r="H738" t="n">
+        <v>7433.499877929688</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.01497855652379055</v>
+      </c>
+      <c r="J738" t="n">
+        <v>168.3277382721262</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="13" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1200.150024414062</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1650.300048828125</v>
+      </c>
+      <c r="E739" t="n">
+        <v>1663.800048828125</v>
+      </c>
+      <c r="F739" t="n">
+        <v>918.5999755859375</v>
+      </c>
+      <c r="G739" t="n">
+        <v>829.2999877929688</v>
+      </c>
+      <c r="H739" t="n">
+        <v>7462.300109863281</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0.003874383857744131</v>
+      </c>
+      <c r="J739" t="n">
+        <v>168.9799045440983</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="13" t="n">
+        <v>45740</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1210.300048828125</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1679.650024414062</v>
+      </c>
+      <c r="E740" t="n">
+        <v>1672.050048828125</v>
+      </c>
+      <c r="F740" t="n">
+        <v>923.7000122070312</v>
+      </c>
+      <c r="G740" t="n">
+        <v>829.9000244140625</v>
+      </c>
+      <c r="H740" t="n">
+        <v>7525.900207519531</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.008522854444326983</v>
+      </c>
+      <c r="J740" t="n">
+        <v>170.4200956745439</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="13" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1177.900024414062</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1730.400024414062</v>
+      </c>
+      <c r="E741" t="n">
+        <v>1647.199951171875</v>
+      </c>
+      <c r="F741" t="n">
+        <v>907.3499755859375</v>
+      </c>
+      <c r="G741" t="n">
+        <v>824.9000244140625</v>
+      </c>
+      <c r="H741" t="n">
+        <v>7465.650024414062</v>
+      </c>
+      <c r="I741" t="n">
+        <v>-0.008005711136758039</v>
+      </c>
+      <c r="J741" t="n">
+        <v>169.0557616166749</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="13" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1164.599975585938</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1708.75</v>
+      </c>
+      <c r="E742" t="n">
+        <v>1629.849975585938</v>
+      </c>
+      <c r="F742" t="n">
+        <v>907.5</v>
+      </c>
+      <c r="G742" t="n">
+        <v>821.5999755859375</v>
+      </c>
+      <c r="H742" t="n">
+        <v>7396.89990234375</v>
+      </c>
+      <c r="I742" t="n">
+        <v>-0.009208859489192077</v>
+      </c>
+      <c r="J742" t="n">
+        <v>167.4989508621086</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="13" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1162.199951171875</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1615.699951171875</v>
+      </c>
+      <c r="E743" t="n">
+        <v>1673.400024414062</v>
+      </c>
+      <c r="F743" t="n">
+        <v>890.75</v>
+      </c>
+      <c r="G743" t="n">
+        <v>822.75</v>
+      </c>
+      <c r="H743" t="n">
+        <v>7326.999877929688</v>
+      </c>
+      <c r="I743" t="n">
+        <v>-0.009449908115143518</v>
+      </c>
+      <c r="J743" t="n">
+        <v>165.9161011670787</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="13" t="n">
+        <v>45744</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1144.199951171875</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1623.199951171875</v>
+      </c>
+      <c r="E744" t="n">
+        <v>1692.050048828125</v>
+      </c>
+      <c r="F744" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="G744" t="n">
+        <v>798.75</v>
+      </c>
+      <c r="H744" t="n">
+        <v>7288.799926757812</v>
+      </c>
+      <c r="I744" t="n">
+        <v>-0.005213586980796942</v>
+      </c>
+      <c r="J744" t="n">
+        <v>165.0510831421294</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="13" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1152.199951171875</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1550.400024414062</v>
+      </c>
+      <c r="E745" t="n">
+        <v>1676.800048828125</v>
+      </c>
+      <c r="F745" t="n">
+        <v>877.5</v>
+      </c>
+      <c r="G745" t="n">
+        <v>804.9500122070312</v>
+      </c>
+      <c r="H745" t="n">
+        <v>7214.049987792969</v>
+      </c>
+      <c r="I745" t="n">
+        <v>-0.01025545216166934</v>
+      </c>
+      <c r="J745" t="n">
+        <v>163.3584096547336</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="13" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1566.699951171875</v>
+      </c>
+      <c r="E746" t="n">
+        <v>1687.25</v>
+      </c>
+      <c r="F746" t="n">
+        <v>891.1500244140625</v>
+      </c>
+      <c r="G746" t="n">
+        <v>806.5499877929688</v>
+      </c>
+      <c r="H746" t="n">
+        <v>7251.649963378906</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.005212048107451589</v>
+      </c>
+      <c r="J746" t="n">
+        <v>164.2098415446109</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="13" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1151.449951171875</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1580.599975585938</v>
+      </c>
+      <c r="E747" t="n">
+        <v>1663.449951171875</v>
+      </c>
+      <c r="F747" t="n">
+        <v>901.9000244140625</v>
+      </c>
+      <c r="G747" t="n">
+        <v>836.5499877929688</v>
+      </c>
+      <c r="H747" t="n">
+        <v>7285.399841308594</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0.004654096391872967</v>
+      </c>
+      <c r="J747" t="n">
+        <v>164.9740899756537</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="13" t="n">
+        <v>45751</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1109.949951171875</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1529.349975585938</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1677.449951171875</v>
+      </c>
+      <c r="F748" t="n">
+        <v>866.9000244140625</v>
+      </c>
+      <c r="G748" t="n">
+        <v>796.75</v>
+      </c>
+      <c r="H748" t="n">
+        <v>7090.349853515625</v>
+      </c>
+      <c r="I748" t="n">
+        <v>-0.02677272243686959</v>
+      </c>
+      <c r="J748" t="n">
+        <v>160.5572844554603</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="13" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1087.900024414062</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1517.849975585938</v>
+      </c>
+      <c r="E749" t="n">
+        <v>1643.5</v>
+      </c>
+      <c r="F749" t="n">
+        <v>837.5999755859375</v>
+      </c>
+      <c r="G749" t="n">
+        <v>765.8499755859375</v>
+      </c>
+      <c r="H749" t="n">
+        <v>6940.599975585938</v>
+      </c>
+      <c r="I749" t="n">
+        <v>-0.02112023821440019</v>
+      </c>
+      <c r="J749" t="n">
+        <v>157.1662763607038</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="13" t="n">
+        <v>45755</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1107.949951171875</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1522.550048828125</v>
+      </c>
+      <c r="E750" t="n">
+        <v>1681.449951171875</v>
+      </c>
+      <c r="F750" t="n">
+        <v>859.0999755859375</v>
+      </c>
+      <c r="G750" t="n">
+        <v>770.1500244140625</v>
+      </c>
+      <c r="H750" t="n">
+        <v>7049.14990234375</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.01563984772781096</v>
+      </c>
+      <c r="J750" t="n">
+        <v>159.6243329909323</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="13" t="n">
+        <v>45756</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1094.050048828125</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1542.5</v>
+      </c>
+      <c r="E751" t="n">
+        <v>1689.5</v>
+      </c>
+      <c r="F751" t="n">
+        <v>844.4000244140625</v>
+      </c>
+      <c r="G751" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="H751" t="n">
+        <v>7011.000122070312</v>
+      </c>
+      <c r="I751" t="n">
+        <v>-0.005411968932701119</v>
+      </c>
+      <c r="J751" t="n">
+        <v>158.7604510598822</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="13" t="n">
+        <v>45758</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1109.5</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1571.599975585938</v>
+      </c>
+      <c r="E752" t="n">
+        <v>1699.949951171875</v>
+      </c>
+      <c r="F752" t="n">
+        <v>868.8499755859375</v>
+      </c>
+      <c r="G752" t="n">
+        <v>775.5</v>
+      </c>
+      <c r="H752" t="n">
+        <v>7134.89990234375</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.01767219770591739</v>
+      </c>
+      <c r="J752" t="n">
+        <v>161.5660971388931</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="13" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1154.900024414062</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1591.5</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1735.599975585938</v>
+      </c>
+      <c r="F753" t="n">
+        <v>883.1500244140625</v>
+      </c>
+      <c r="G753" t="n">
+        <v>803.9500122070312</v>
+      </c>
+      <c r="H753" t="n">
+        <v>7324.000061035156</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.02650354753109971</v>
+      </c>
+      <c r="J753" t="n">
+        <v>165.848171873828</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="13" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1158.400024414062</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1628</v>
+      </c>
+      <c r="E754" t="n">
+        <v>1793.300048828125</v>
+      </c>
+      <c r="F754" t="n">
+        <v>822.0999755859375</v>
+      </c>
+      <c r="G754" t="n">
+        <v>826.5999755859375</v>
+      </c>
+      <c r="H754" t="n">
+        <v>7386.800048828125</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.008574547688369729</v>
+      </c>
+      <c r="J754" t="n">
+        <v>167.2702449325891</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="13" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1163.599975585938</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1646.300048828125</v>
+      </c>
+      <c r="E755" t="n">
+        <v>1854.400024414062</v>
+      </c>
+      <c r="F755" t="n">
+        <v>831.5499877929688</v>
+      </c>
+      <c r="G755" t="n">
+        <v>827.5999755859375</v>
+      </c>
+      <c r="H755" t="n">
+        <v>7487.049987792969</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0.01357149757705271</v>
+      </c>
+      <c r="J755" t="n">
+        <v>169.5403526564047</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="13" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1177.400024414062</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1658.699951171875</v>
+      </c>
+      <c r="E756" t="n">
+        <v>1823.599975585938</v>
+      </c>
+      <c r="F756" t="n">
+        <v>845.3499755859375</v>
+      </c>
+      <c r="G756" t="n">
+        <v>829.7999877929688</v>
+      </c>
+      <c r="H756" t="n">
+        <v>7512.249938964844</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.003365805118566256</v>
+      </c>
+      <c r="J756" t="n">
+        <v>170.1109924431792</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="13" t="n">
+        <v>45769</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1656</v>
+      </c>
+      <c r="E757" t="n">
+        <v>1835.400024414062</v>
+      </c>
+      <c r="F757" t="n">
+        <v>852.7000122070312</v>
+      </c>
+      <c r="G757" t="n">
+        <v>839.2999877929688</v>
+      </c>
+      <c r="H757" t="n">
+        <v>7533.400024414062</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0.002815412908390684</v>
+      </c>
+      <c r="J757" t="n">
+        <v>170.5899251271628</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="13" t="n">
+        <v>45770</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1585.5</v>
+      </c>
+      <c r="E758" t="n">
+        <v>1800.599975585938</v>
+      </c>
+      <c r="F758" t="n">
+        <v>868</v>
+      </c>
+      <c r="G758" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="H758" t="n">
+        <v>7470.599975585938</v>
+      </c>
+      <c r="I758" t="n">
+        <v>-0.008336215868612327</v>
+      </c>
+      <c r="J758" t="n">
+        <v>169.1678506862924</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="13" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1200.5</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1609.099975585938</v>
+      </c>
+      <c r="E759" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="F759" t="n">
+        <v>880.25</v>
+      </c>
+      <c r="G759" t="n">
+        <v>902.8499755859375</v>
+      </c>
+      <c r="H759" t="n">
+        <v>7590</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0.01598265531607422</v>
+      </c>
+      <c r="J759" t="n">
+        <v>171.8716021343725</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="13" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1174.800048828125</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1573.699951171875</v>
+      </c>
+      <c r="E760" t="n">
+        <v>1788</v>
+      </c>
+      <c r="F760" t="n">
+        <v>859.6500244140625</v>
+      </c>
+      <c r="G760" t="n">
+        <v>889.25</v>
+      </c>
+      <c r="H760" t="n">
+        <v>7460.200073242188</v>
+      </c>
+      <c r="I760" t="n">
+        <v>-0.01710143962553524</v>
+      </c>
+      <c r="J760" t="n">
+        <v>168.9323503071275</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="13" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1198.699951171875</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1600.400024414062</v>
+      </c>
+      <c r="E761" t="n">
+        <v>1798.199951171875</v>
+      </c>
+      <c r="F761" t="n">
+        <v>886.5499877929688</v>
+      </c>
+      <c r="G761" t="n">
+        <v>884.1500244140625</v>
+      </c>
+      <c r="H761" t="n">
+        <v>7566.699890136719</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.0142757319976603</v>
+      </c>
+      <c r="J761" t="n">
+        <v>171.343983265847</v>
       </c>
     </row>
   </sheetData>
